--- a/Risk Driver Simulation/Runfiles/IRinput.xlsx
+++ b/Risk Driver Simulation/Runfiles/IRinput.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQ228YH\Documents\CVA Tool Python\CVA-Tool\Risk Driver Simulation\Runfiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA4F8AF-7CAD-48BF-97AB-9797173BADA3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="21075" windowHeight="9540"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Domestic</t>
   </si>
@@ -106,12 +112,15 @@
   </si>
   <si>
     <t>TestVolatility</t>
+  </si>
+  <si>
+    <t>MeanReversion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -141,8 +150,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -152,6 +162,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -200,7 +213,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,9 +246,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,6 +298,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -443,20 +490,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -521,7 +569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -538,7 +586,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -555,7 +603,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -570,6 +618,23 @@
       </c>
       <c r="E4" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -578,24 +643,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Risk Driver Simulation/Runfiles/IRinput.xlsx
+++ b/Risk Driver Simulation/Runfiles/IRinput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQ228YH\Documents\CVA Tool Python\CVA-Tool\Risk Driver Simulation\Runfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA4F8AF-7CAD-48BF-97AB-9797173BADA3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7480FF-B29E-4B0A-8607-5C2E4A10BCDC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Domestic</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>MeanReversion</t>
+  </si>
+  <si>
+    <t>EURIBOR6M 31122019</t>
+  </si>
+  <si>
+    <t>EUR volatility 31122019</t>
   </si>
 </sst>
 </file>
@@ -494,7 +500,7 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,7 +597,7 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -608,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>

--- a/Risk Driver Simulation/Runfiles/IRinput.xlsx
+++ b/Risk Driver Simulation/Runfiles/IRinput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQ228YH\Documents\CVA Tool Python\CVA-Tool\Risk Driver Simulation\Runfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7480FF-B29E-4B0A-8607-5C2E4A10BCDC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6A1695-B984-4ADA-9079-0ECDD74F7111}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-6465" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Domestic</t>
   </si>
@@ -99,28 +99,22 @@
     <t>EUR</t>
   </si>
   <si>
-    <t>GBP</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
-    <t>JPY</t>
-  </si>
-  <si>
-    <t>TestYieldCurve</t>
-  </si>
-  <si>
-    <t>TestVolatility</t>
-  </si>
-  <si>
     <t>MeanReversion</t>
   </si>
   <si>
     <t>EURIBOR6M 31122019</t>
   </si>
   <si>
-    <t>EUR volatility 31122019</t>
+    <t>USD LIBOR3M OISSTRIPPED 31122019</t>
+  </si>
+  <si>
+    <t>USD VOL EURUSD 8Y coterminal alpha3perc 31122019</t>
+  </si>
+  <si>
+    <t>EUR VOL EURUSD 8Y coterminal alpha3perc 31122019</t>
   </si>
 </sst>
 </file>
@@ -500,7 +494,7 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,16 +574,10 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -597,16 +585,10 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -614,21 +596,15 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1">
         <v>0.03</v>
@@ -636,12 +612,8 @@
       <c r="C5" s="1">
         <v>0.03</v>
       </c>
-      <c r="D5" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.03</v>
-      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Risk Driver Simulation/Runfiles/IRinput.xlsx
+++ b/Risk Driver Simulation/Runfiles/IRinput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQ228YH\Documents\CVA Tool Python\CVA-Tool\Risk Driver Simulation\Runfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6A1695-B984-4ADA-9079-0ECDD74F7111}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB0A966-4F73-417C-891C-12DBC1ADF5F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6465" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,69 +24,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
-    <t>Domestic</t>
-  </si>
-  <si>
-    <t>Foreign1</t>
-  </si>
-  <si>
-    <t>Foreign2</t>
-  </si>
-  <si>
-    <t>Foreign3</t>
-  </si>
-  <si>
-    <t>Foreign4</t>
-  </si>
-  <si>
-    <t>Foreign5</t>
-  </si>
-  <si>
-    <t>Foreign6</t>
-  </si>
-  <si>
-    <t>Foreign7</t>
-  </si>
-  <si>
-    <t>Foreign8</t>
-  </si>
-  <si>
-    <t>Foreign9</t>
-  </si>
-  <si>
-    <t>Foreign10</t>
-  </si>
-  <si>
-    <t>Foreign11</t>
-  </si>
-  <si>
-    <t>Foreign12</t>
-  </si>
-  <si>
-    <t>Foreign13</t>
-  </si>
-  <si>
-    <t>Foreign14</t>
-  </si>
-  <si>
-    <t>Foreign15</t>
-  </si>
-  <si>
-    <t>Foreign16</t>
-  </si>
-  <si>
-    <t>Foreign17</t>
-  </si>
-  <si>
-    <t>Foreign18</t>
-  </si>
-  <si>
-    <t>Foreign19</t>
-  </si>
-  <si>
-    <t>Foreign20</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -115,16 +52,85 @@
   </si>
   <si>
     <t>EUR VOL EURUSD 8Y coterminal alpha3perc 31122019</t>
+  </si>
+  <si>
+    <t>domestic</t>
+  </si>
+  <si>
+    <t>foreign1</t>
+  </si>
+  <si>
+    <t>foreign2</t>
+  </si>
+  <si>
+    <t>foreign3</t>
+  </si>
+  <si>
+    <t>foreign4</t>
+  </si>
+  <si>
+    <t>foreign5</t>
+  </si>
+  <si>
+    <t>foreign6</t>
+  </si>
+  <si>
+    <t>foreign7</t>
+  </si>
+  <si>
+    <t>foreign8</t>
+  </si>
+  <si>
+    <t>foreign9</t>
+  </si>
+  <si>
+    <t>foreign10</t>
+  </si>
+  <si>
+    <t>foreign11</t>
+  </si>
+  <si>
+    <t>foreign12</t>
+  </si>
+  <si>
+    <t>foreign13</t>
+  </si>
+  <si>
+    <t>foreign14</t>
+  </si>
+  <si>
+    <t>foreign15</t>
+  </si>
+  <si>
+    <t>foreign16</t>
+  </si>
+  <si>
+    <t>foreign17</t>
+  </si>
+  <si>
+    <t>foreign18</t>
+  </si>
+  <si>
+    <t>foreign19</t>
+  </si>
+  <si>
+    <t>foreign20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -494,7 +500,7 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,105 +512,105 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>0.03</v>
@@ -616,6 +622,7 @@
       <c r="E5" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
